--- a/frontend/uploaded/routes_14.04.2025.xlsx
+++ b/frontend/uploaded/routes_14.04.2025.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -3248,7 +3248,9 @@
   </sheetPr>
   <dimension ref="A1:K310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3735,7 +3737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>305730.53999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -3807,7 +3809,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>68</v>
       </c>
@@ -3940,7 +3942,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>68</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>120</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>554471</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>120</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>120</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>120</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>120</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>120</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>120</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>169</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>694103</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>169</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>169</v>
       </c>
@@ -4645,7 +4647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>169</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>169</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>169</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>169</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>169</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>169</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>169</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>169</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>169</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>169</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>169</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>169</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>208</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>376557.09</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>208</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>208</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>208</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>208</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>208</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>208</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>208</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>208</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>208</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>208</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>208</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>208</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>208</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>208</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>208</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>208</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>208</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>263</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>328733.08</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>263</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>263</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>263</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>263</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>263</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>263</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>263</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>263</v>
       </c>
@@ -5688,7 +5690,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>263</v>
       </c>
@@ -5719,7 +5721,7 @@
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>263</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>263</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>263</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>263</v>
       </c>
@@ -5828,7 +5830,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>263</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>263</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>263</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>263</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>263</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>321</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>453034.39</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>321</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>321</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>321</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>321</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>321</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>321</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>321</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>321</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>321</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>321</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>321</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>321</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>321</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>321</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>321</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>321</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>321</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>321</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>321</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>321</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>321</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>321</v>
       </c>
@@ -6583,7 +6585,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>389</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>529082.17000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>389</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>389</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>389</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>389</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>389</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>389</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>389</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>389</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>389</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>389</v>
       </c>
@@ -6869,7 +6871,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>389</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>389</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>389</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>389</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>389</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>389</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>389</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>389</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>389</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>389</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>455</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>381452.18</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>455</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>455</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>455</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>455</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>455</v>
       </c>
@@ -7294,7 +7296,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>455</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>455</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>455</v>
       </c>
@@ -7377,7 +7379,7 @@
       <c r="J155" s="13"/>
       <c r="K155" s="13"/>
     </row>
-    <row r="156" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>455</v>
       </c>
@@ -7408,7 +7410,7 @@
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
     </row>
-    <row r="157" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>455</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>455</v>
       </c>
@@ -7463,7 +7465,7 @@
       <c r="J158" s="13"/>
       <c r="K158" s="13"/>
     </row>
-    <row r="159" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>455</v>
       </c>
@@ -7492,7 +7494,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>455</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>455</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>455</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>455</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>509</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>564645.73</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>509</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>509</v>
       </c>
@@ -7680,7 +7682,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>509</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>509</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>509</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>509</v>
       </c>
@@ -7784,7 +7786,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>509</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>509</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>509</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>509</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>509</v>
       </c>
@@ -7917,7 +7919,7 @@
         <v>89202114731</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>509</v>
       </c>
@@ -7946,7 +7948,7 @@
       <c r="J176" s="13"/>
       <c r="K176" s="13"/>
     </row>
-    <row r="177" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>549</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>270970</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>549</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>549</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>549</v>
       </c>
@@ -8044,7 +8046,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>549</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>549</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>549</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>549</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>549</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>549</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>583</v>
       </c>
@@ -8220,7 +8222,7 @@
         <v>770986.4</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>583</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>583</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>583</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>583</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>583</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>583</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>583</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>583</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>583</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>583</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>583</v>
       </c>
@@ -8512,7 +8514,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>583</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>583</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
         <v>583</v>
       </c>
@@ -8599,7 +8601,7 @@
       <c r="J201" s="13"/>
       <c r="K201" s="13"/>
     </row>
-    <row r="202" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
         <v>583</v>
       </c>
@@ -8624,7 +8626,7 @@
       <c r="J202" s="13"/>
       <c r="K202" s="13"/>
     </row>
-    <row r="203" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>583</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>633</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>681121</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>633</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>633</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>633</v>
       </c>
@@ -8751,7 +8753,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>633</v>
       </c>
@@ -8780,7 +8782,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>633</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>633</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>633</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>633</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>633</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>633</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>633</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>633</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>633</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>633</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>633</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>633</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>685</v>
       </c>
@@ -9112,7 +9114,7 @@
         <v>1998275</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>685</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>685</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>692</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>318619</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>692</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>692</v>
       </c>
@@ -9227,7 +9229,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>692</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>692</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>692</v>
       </c>
@@ -9308,7 +9310,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>692</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>692</v>
       </c>
@@ -9360,7 +9362,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>692</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>692</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>692</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>692</v>
       </c>
@@ -9464,7 +9466,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>692</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>692</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>692</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>692</v>
       </c>
@@ -9568,7 +9570,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>692</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>692</v>
       </c>
@@ -9620,7 +9622,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>692</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>742</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>1018920</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>742</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>742</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>754</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>355569.25</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>754</v>
       </c>
@@ -9764,7 +9766,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>754</v>
       </c>
@@ -9790,7 +9792,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>754</v>
       </c>
@@ -9819,7 +9821,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>754</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>754</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>754</v>
       </c>
@@ -9897,7 +9899,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>754</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>754</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>754</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>754</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>754</v>
       </c>
@@ -10030,7 +10032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>754</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>754</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>754</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>754</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>754</v>
       </c>
@@ -10163,7 +10165,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>754</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>754</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>754</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>754</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>754</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>754</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>754</v>
       </c>
@@ -10348,7 +10350,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>754</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>754</v>
       </c>
@@ -10400,7 +10402,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>754</v>
       </c>
@@ -10429,7 +10431,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>754</v>
       </c>
@@ -10455,7 +10457,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>830</v>
       </c>
@@ -10469,7 +10471,7 @@
         <v>729496</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>830</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>830</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>830</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>830</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>830</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>830</v>
       </c>
@@ -10631,7 +10633,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>830</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>830</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>830</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>830</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>830</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>830</v>
       </c>
@@ -10793,7 +10795,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>830</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>830</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>871</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>363075.31</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>871</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>871</v>
       </c>
@@ -10926,7 +10928,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>871</v>
       </c>
@@ -10955,7 +10957,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>871</v>
       </c>
@@ -10984,7 +10986,7 @@
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
     </row>
-    <row r="294" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
         <v>871</v>
       </c>
@@ -11013,7 +11015,7 @@
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
     </row>
-    <row r="295" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>871</v>
       </c>
@@ -11042,7 +11044,7 @@
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
     </row>
-    <row r="296" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>890</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>268754.09000000003</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>890</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>890</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>890</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
         <v>890</v>
       </c>
@@ -11166,7 +11168,7 @@
       <c r="J300" s="13"/>
       <c r="K300" s="13"/>
     </row>
-    <row r="301" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>890</v>
       </c>
@@ -11195,7 +11197,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>890</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>890</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>890</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>890</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A306" s="12" t="s">
         <v>890</v>
       </c>
@@ -11328,7 +11330,7 @@
       <c r="J306" s="13"/>
       <c r="K306" s="13"/>
     </row>
-    <row r="307" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
         <v>890</v>
       </c>
@@ -11357,7 +11359,7 @@
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
     </row>
-    <row r="308" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>890</v>
       </c>
@@ -11383,7 +11385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A309" s="12" t="s">
         <v>890</v>
       </c>
@@ -11412,7 +11414,7 @@
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
     </row>
-    <row r="310" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>890</v>
       </c>
